--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F7-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.317191999999999</v>
+        <v>1.174047333333333</v>
       </c>
       <c r="H2">
-        <v>12.951576</v>
+        <v>3.522142</v>
       </c>
       <c r="I2">
-        <v>0.9922147813892044</v>
+        <v>0.9719567830576163</v>
       </c>
       <c r="J2">
-        <v>0.9922147813892044</v>
+        <v>0.9719567830576163</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.27881</v>
+        <v>173.637756</v>
       </c>
       <c r="N2">
-        <v>15.83643</v>
+        <v>520.913268</v>
       </c>
       <c r="O2">
-        <v>0.029253274671187</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="P2">
-        <v>0.029253274671187</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="Q2">
-        <v>22.78963630152</v>
+        <v>203.858944397784</v>
       </c>
       <c r="R2">
-        <v>205.10672671368</v>
+        <v>1834.730499580056</v>
       </c>
       <c r="S2">
-        <v>0.02902553153279016</v>
+        <v>0.959879119141109</v>
       </c>
       <c r="T2">
-        <v>0.02902553153279016</v>
+        <v>0.959879119141109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.317191999999999</v>
+        <v>1.174047333333333</v>
       </c>
       <c r="H3">
-        <v>12.951576</v>
+        <v>3.522142</v>
       </c>
       <c r="I3">
-        <v>0.9922147813892044</v>
+        <v>0.9719567830576163</v>
       </c>
       <c r="J3">
-        <v>0.9922147813892044</v>
+        <v>0.9719567830576163</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>173.637756</v>
+        <v>2.184794333333333</v>
       </c>
       <c r="N3">
-        <v>520.913268</v>
+        <v>6.554383</v>
       </c>
       <c r="O3">
-        <v>0.9622382638429019</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="P3">
-        <v>0.962238263842902</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="Q3">
-        <v>749.6275311011519</v>
+        <v>2.565051960931778</v>
       </c>
       <c r="R3">
-        <v>6746.647779910368</v>
+        <v>23.085467648386</v>
       </c>
       <c r="S3">
-        <v>0.9547470286032125</v>
+        <v>0.01207766391650723</v>
       </c>
       <c r="T3">
-        <v>0.9547470286032126</v>
+        <v>0.01207766391650723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,25 +649,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.317191999999999</v>
+        <v>0.033874</v>
       </c>
       <c r="H4">
-        <v>12.951576</v>
+        <v>0.101622</v>
       </c>
       <c r="I4">
-        <v>0.9922147813892044</v>
+        <v>0.02804321694238366</v>
       </c>
       <c r="J4">
-        <v>0.9922147813892044</v>
+        <v>0.02804321694238367</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.535368333333333</v>
+        <v>173.637756</v>
       </c>
       <c r="N4">
-        <v>4.606105</v>
+        <v>520.913268</v>
       </c>
       <c r="O4">
-        <v>0.008508461485911143</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="P4">
-        <v>0.008508461485911145</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="Q4">
-        <v>6.62847988572</v>
+        <v>5.881805346744</v>
       </c>
       <c r="R4">
-        <v>59.65631897148</v>
+        <v>52.93624812069601</v>
       </c>
       <c r="S4">
-        <v>0.008442221253201789</v>
+        <v>0.02769474820872008</v>
       </c>
       <c r="T4">
-        <v>0.008442221253201791</v>
+        <v>0.02769474820872009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,164 +726,40 @@
         <v>0.101622</v>
       </c>
       <c r="I5">
-        <v>0.007785218610795609</v>
+        <v>0.02804321694238366</v>
       </c>
       <c r="J5">
-        <v>0.007785218610795608</v>
+        <v>0.02804321694238367</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>5.27881</v>
+        <v>2.184794333333333</v>
       </c>
       <c r="N5">
-        <v>15.83643</v>
+        <v>6.554383</v>
       </c>
       <c r="O5">
-        <v>0.029253274671187</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="P5">
-        <v>0.029253274671187</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="Q5">
-        <v>0.17881440994</v>
+        <v>0.07400772324733333</v>
       </c>
       <c r="R5">
-        <v>1.60932968946</v>
+        <v>0.6660695092259999</v>
       </c>
       <c r="S5">
-        <v>0.0002277431383968408</v>
+        <v>0.0003484687336635767</v>
       </c>
       <c r="T5">
-        <v>0.0002277431383968408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.033874</v>
-      </c>
-      <c r="H6">
-        <v>0.101622</v>
-      </c>
-      <c r="I6">
-        <v>0.007785218610795609</v>
-      </c>
-      <c r="J6">
-        <v>0.007785218610795608</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>173.637756</v>
-      </c>
-      <c r="N6">
-        <v>520.913268</v>
-      </c>
-      <c r="O6">
-        <v>0.9622382638429019</v>
-      </c>
-      <c r="P6">
-        <v>0.962238263842902</v>
-      </c>
-      <c r="Q6">
-        <v>5.881805346744</v>
-      </c>
-      <c r="R6">
-        <v>52.93624812069601</v>
-      </c>
-      <c r="S6">
-        <v>0.007491235239689415</v>
-      </c>
-      <c r="T6">
-        <v>0.007491235239689415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.033874</v>
-      </c>
-      <c r="H7">
-        <v>0.101622</v>
-      </c>
-      <c r="I7">
-        <v>0.007785218610795609</v>
-      </c>
-      <c r="J7">
-        <v>0.007785218610795608</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.535368333333333</v>
-      </c>
-      <c r="N7">
-        <v>4.606105</v>
-      </c>
-      <c r="O7">
-        <v>0.008508461485911143</v>
-      </c>
-      <c r="P7">
-        <v>0.008508461485911145</v>
-      </c>
-      <c r="Q7">
-        <v>0.05200906692333334</v>
-      </c>
-      <c r="R7">
-        <v>0.4680816023100001</v>
-      </c>
-      <c r="S7">
-        <v>6.624023270935309E-05</v>
-      </c>
-      <c r="T7">
-        <v>6.624023270935309E-05</v>
+        <v>0.0003484687336635767</v>
       </c>
     </row>
   </sheetData>
